--- a/analytics.xlsx
+++ b/analytics.xlsx
@@ -1,84 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Собеседования\interviews\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
-  <si>
-    <t>Комнатность</t>
-  </si>
-  <si>
-    <t>Куплено штук</t>
-  </si>
-  <si>
-    <t>Класс</t>
-  </si>
-  <si>
-    <t>Нет данных</t>
-  </si>
-  <si>
-    <t>бизнес</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>элит</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>премиум</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>комфорт</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -97,21 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -399,111 +408,405 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Комнатность</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Куплено штук</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Класс</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Куплено штук</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Класс + комнатность</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Куплено штук</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Средняя площадь</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Нет данных</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5582</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>бизнес</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>2155</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>элит 5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>227.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>элит</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>14</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>элит 3</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>146.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>183</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Нет данных</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>409</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>бизнес 2</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>58.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>344</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>премиум</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>61</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>бизнес 3</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>84.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>517</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>комфорт</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>4016</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>премиум 2</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>102.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>премиум 1</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>57.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>5581</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>2155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>183</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>344</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>517</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6">
-        <v>4015</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>бизнес 1</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>48.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>бизнес 4</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>112.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>премиум 3</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>97.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>комфорт 1</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>38.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>комфорт 2</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>55.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>комфорт 3</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>75.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>комфорт 5</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>112.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>комфорт 4</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>92.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>комфорт 9</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>44.7</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/analytics.xlsx
+++ b/analytics.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -318,7 +318,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -326,12 +326,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -636,399 +652,415 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>5579</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>2155</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>182</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>409</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>344</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>61</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>517</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>4016</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K9" t="s">
+      <c r="K9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K10" t="s">
+      <c r="K10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K11" t="s">
+      <c r="K11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K12" t="s">
+      <c r="K12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K13" t="s">
+      <c r="K13" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K14" t="s">
+      <c r="K14" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K15" t="s">
+      <c r="K15" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K16" t="s">
+      <c r="K16" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N16" s="1" t="s">
         <v>60</v>
       </c>
     </row>
